--- a/Computational_Data/Overview_Energies/B_Isomer_Energies.xlsx
+++ b/Computational_Data/Overview_Energies/B_Isomer_Energies.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57305DA9-A083-3248-ADA1-2420AD646FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="3520" windowWidth="19000" windowHeight="10020" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="21400" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -81,9 +87,6 @@
     <t>G-Cis-Mono-D-0-GPOF</t>
   </si>
   <si>
-    <t>Relative Energy / kcal/mol</t>
-  </si>
-  <si>
     <t>2-TPy-A</t>
   </si>
   <si>
@@ -93,19 +96,22 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>Relative to [B]_T0</t>
-  </si>
-  <si>
-    <t>Relative to [B-Trans]_T0 (gas phase)</t>
-  </si>
-  <si>
-    <t>Relative to [B-Trans]_T0 (SMD)</t>
+    <t>Relative Energy / kJ/mol</t>
+  </si>
+  <si>
+    <t>Relative to [B]_T0 / kJ/mol</t>
+  </si>
+  <si>
+    <t>Relative to [B-Trans]_T0 (gas phase) / kJ/mol</t>
+  </si>
+  <si>
+    <t>Relative to [B-Trans]_T0 (SMD) / kJ/mol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -198,6 +204,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -522,16 +536,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -574,11 +592,11 @@
         <v>1.008993</v>
       </c>
       <c r="G2">
-        <f>(D2-$D$3)*627.5095</f>
-        <v>8.5531113623785249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <f>(D2-$D$3)*2625.5</f>
+        <v>35.786221375014748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -599,11 +617,11 @@
         <v>1.010559</v>
       </c>
       <c r="G3">
-        <f>(D3-$D$3)*627.5095</f>
+        <f>(D3-$D$3)*2625.5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -624,11 +642,11 @@
         <v>0.48144999999999999</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G7" si="0">(D5-$D$8)*627.5095</f>
-        <v>6.8754396139335778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <f>(D5-$D$8)*2625.5</f>
+        <v>28.76684210578901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -639,7 +657,7 @@
         <v>-1554.33849227</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D8" si="1">C6+F6</f>
+        <f t="shared" ref="D6:D8" si="0">C6+F6</f>
         <v>-1553.8561972699999</v>
       </c>
       <c r="E6" s="3">
@@ -649,11 +667,11 @@
         <v>0.48229499999999997</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8.6751682353840618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <f t="shared" ref="G6:G8" si="1">(D6-$D$8)*2625.5</f>
+        <v>36.296907380686434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -664,7 +682,7 @@
         <v>-1554.35102955</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1553.86757655</v>
       </c>
       <c r="E7" s="3">
@@ -674,11 +692,11 @@
         <v>0.48345300000000002</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.5345619322063018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <f t="shared" si="1"/>
+        <v>6.4206077406121267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -689,7 +707,7 @@
         <v>-1554.3531770300001</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1553.8700220300002</v>
       </c>
       <c r="E8" s="3">
@@ -699,11 +717,11 @@
         <v>0.483155</v>
       </c>
       <c r="G8">
-        <f>(D8-$D$8)*627.5095</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>24</v>
       </c>
@@ -714,7 +732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -735,24 +753,24 @@
         <v>0.47009800000000002</v>
       </c>
       <c r="G10">
-        <f>((D10+D13+D12)-D2)*627.5095</f>
-        <v>7.9643807573540304</v>
+        <f>((D10+D13+D12)-D2)*2625.5</f>
+        <v>33.322972287165385</v>
       </c>
       <c r="H10">
-        <f>((E10+E12+E13)-E3)*627.5095</f>
-        <v>39.106392039999818</v>
+        <f>((E10+E12+E13)-E3)*2625.5</f>
+        <v>163.62115999999924</v>
       </c>
       <c r="I10">
-        <f>((D10+D12+D13)-D3)*627.5095</f>
-        <v>16.517492119732555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <f>((D10+D12+D13)-D3)*2625.5</f>
+        <v>69.109193662180132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>-1479.8091329599999</v>
@@ -767,12 +785,12 @@
         <v>0.49121599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
         <v>-76.386355991900004</v>
